--- a/healthman-mock/v2/data/classes/利兹学院.xlsx
+++ b/healthman-mock/v2/data/classes/利兹学院.xlsx
@@ -50,7 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -452,12 +451,12 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>录入年份</t>
+          <t>年级</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>年级</t>
+          <t>教师工号</t>
         </is>
       </c>
     </row>
@@ -475,12 +474,14 @@
           <t>利兹学院</t>
         </is>
       </c>
-      <c r="D2" t="n">
-        <v>2019</v>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>大一</t>
+        </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>大一</t>
+          <t>000747</t>
         </is>
       </c>
     </row>
@@ -498,12 +499,14 @@
           <t>利兹学院</t>
         </is>
       </c>
-      <c r="D3" t="n">
-        <v>2019</v>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>大一</t>
+        </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>大一</t>
+          <t>000619</t>
         </is>
       </c>
     </row>
@@ -521,12 +524,14 @@
           <t>利兹学院</t>
         </is>
       </c>
-      <c r="D4" t="n">
-        <v>2019</v>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>大一</t>
+        </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>大一</t>
+          <t>000586</t>
         </is>
       </c>
     </row>
@@ -544,12 +549,14 @@
           <t>利兹学院</t>
         </is>
       </c>
-      <c r="D5" t="n">
-        <v>2019</v>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>大一</t>
+        </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>大一</t>
+          <t>000035</t>
         </is>
       </c>
     </row>
@@ -567,12 +574,14 @@
           <t>利兹学院</t>
         </is>
       </c>
-      <c r="D6" t="n">
-        <v>2019</v>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>大一</t>
+        </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>大一</t>
+          <t>000245</t>
         </is>
       </c>
     </row>
@@ -590,12 +599,14 @@
           <t>利兹学院</t>
         </is>
       </c>
-      <c r="D7" t="n">
-        <v>2019</v>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>大一</t>
+        </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>大一</t>
+          <t>000599</t>
         </is>
       </c>
     </row>
@@ -613,12 +624,14 @@
           <t>利兹学院</t>
         </is>
       </c>
-      <c r="D8" t="n">
-        <v>2019</v>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>大一</t>
+        </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>大一</t>
+          <t>000444</t>
         </is>
       </c>
     </row>
@@ -636,12 +649,14 @@
           <t>利兹学院</t>
         </is>
       </c>
-      <c r="D9" t="n">
-        <v>2019</v>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>大一</t>
+        </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>大一</t>
+          <t>000525</t>
         </is>
       </c>
     </row>
@@ -659,12 +674,14 @@
           <t>利兹学院</t>
         </is>
       </c>
-      <c r="D10" t="n">
-        <v>2020</v>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>大一</t>
+        </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>大一</t>
+          <t>000680</t>
         </is>
       </c>
     </row>
@@ -682,12 +699,14 @@
           <t>利兹学院</t>
         </is>
       </c>
-      <c r="D11" t="n">
-        <v>2020</v>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>大一</t>
+        </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>大一</t>
+          <t>000267</t>
         </is>
       </c>
     </row>
@@ -705,12 +724,14 @@
           <t>利兹学院</t>
         </is>
       </c>
-      <c r="D12" t="n">
-        <v>2020</v>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>大一</t>
+        </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>大一</t>
+          <t>000113</t>
         </is>
       </c>
     </row>
@@ -728,12 +749,14 @@
           <t>利兹学院</t>
         </is>
       </c>
-      <c r="D13" t="n">
-        <v>2020</v>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>大一</t>
+        </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>大一</t>
+          <t>000624</t>
         </is>
       </c>
     </row>
@@ -751,12 +774,14 @@
           <t>利兹学院</t>
         </is>
       </c>
-      <c r="D14" t="n">
-        <v>2020</v>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>大一</t>
+        </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>大一</t>
+          <t>000637</t>
         </is>
       </c>
     </row>
@@ -774,12 +799,14 @@
           <t>利兹学院</t>
         </is>
       </c>
-      <c r="D15" t="n">
-        <v>2020</v>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>大一</t>
+        </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>大一</t>
+          <t>000865</t>
         </is>
       </c>
     </row>
@@ -797,12 +824,14 @@
           <t>利兹学院</t>
         </is>
       </c>
-      <c r="D16" t="n">
-        <v>2020</v>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>大一</t>
+        </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>大一</t>
+          <t>000892</t>
         </is>
       </c>
     </row>
@@ -820,12 +849,14 @@
           <t>利兹学院</t>
         </is>
       </c>
-      <c r="D17" t="n">
-        <v>2020</v>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>大一</t>
+        </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>大一</t>
+          <t>000862</t>
         </is>
       </c>
     </row>
@@ -843,12 +874,14 @@
           <t>利兹学院</t>
         </is>
       </c>
-      <c r="D18" t="n">
-        <v>2021</v>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>大一</t>
+        </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>大一</t>
+          <t>000736</t>
         </is>
       </c>
     </row>
@@ -866,12 +899,14 @@
           <t>利兹学院</t>
         </is>
       </c>
-      <c r="D19" t="n">
-        <v>2021</v>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>大一</t>
+        </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>大一</t>
+          <t>000656</t>
         </is>
       </c>
     </row>
@@ -889,12 +924,14 @@
           <t>利兹学院</t>
         </is>
       </c>
-      <c r="D20" t="n">
-        <v>2021</v>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>大一</t>
+        </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>大一</t>
+          <t>000448</t>
         </is>
       </c>
     </row>
@@ -912,12 +949,14 @@
           <t>利兹学院</t>
         </is>
       </c>
-      <c r="D21" t="n">
-        <v>2021</v>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>大一</t>
+        </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>大一</t>
+          <t>000787</t>
         </is>
       </c>
     </row>
@@ -935,12 +974,14 @@
           <t>利兹学院</t>
         </is>
       </c>
-      <c r="D22" t="n">
-        <v>2021</v>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>大一</t>
+        </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>大一</t>
+          <t>001026</t>
         </is>
       </c>
     </row>
@@ -958,12 +999,14 @@
           <t>利兹学院</t>
         </is>
       </c>
-      <c r="D23" t="n">
-        <v>2021</v>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>大一</t>
+        </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>大一</t>
+          <t>000044</t>
         </is>
       </c>
     </row>
@@ -981,12 +1024,14 @@
           <t>利兹学院</t>
         </is>
       </c>
-      <c r="D24" t="n">
-        <v>2021</v>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>大一</t>
+        </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>大一</t>
+          <t>000598</t>
         </is>
       </c>
     </row>
@@ -1004,12 +1049,14 @@
           <t>利兹学院</t>
         </is>
       </c>
-      <c r="D25" t="n">
-        <v>2021</v>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>大一</t>
+        </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>大一</t>
+          <t>000749</t>
         </is>
       </c>
     </row>

--- a/healthman-mock/v2/data/classes/利兹学院.xlsx
+++ b/healthman-mock/v2/data/classes/利兹学院.xlsx
@@ -50,6 +50,7 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -481,7 +482,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>000747</t>
+          <t>000059</t>
         </is>
       </c>
     </row>
@@ -506,7 +507,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>000619</t>
+          <t>000130</t>
         </is>
       </c>
     </row>
@@ -531,7 +532,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>000586</t>
+          <t>000123</t>
         </is>
       </c>
     </row>
@@ -556,7 +557,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>000035</t>
+          <t>000181</t>
         </is>
       </c>
     </row>
@@ -581,7 +582,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>000245</t>
+          <t>000180</t>
         </is>
       </c>
     </row>
@@ -606,7 +607,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>000599</t>
+          <t>000081</t>
         </is>
       </c>
     </row>
@@ -631,7 +632,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>000444</t>
+          <t>000144</t>
         </is>
       </c>
     </row>
@@ -656,7 +657,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>000525</t>
+          <t>000024</t>
         </is>
       </c>
     </row>
@@ -681,7 +682,7 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>000680</t>
+          <t>000152</t>
         </is>
       </c>
     </row>
@@ -706,7 +707,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>000267</t>
+          <t>000146</t>
         </is>
       </c>
     </row>
@@ -731,7 +732,7 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>000113</t>
+          <t>000033</t>
         </is>
       </c>
     </row>
@@ -756,7 +757,7 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>000624</t>
+          <t>000154</t>
         </is>
       </c>
     </row>
@@ -781,7 +782,7 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>000637</t>
+          <t>000199</t>
         </is>
       </c>
     </row>
@@ -806,7 +807,7 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>000865</t>
+          <t>000128</t>
         </is>
       </c>
     </row>
@@ -831,7 +832,7 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>000892</t>
+          <t>000046</t>
         </is>
       </c>
     </row>
@@ -856,7 +857,7 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>000862</t>
+          <t>000164</t>
         </is>
       </c>
     </row>
@@ -881,7 +882,7 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>000736</t>
+          <t>000063</t>
         </is>
       </c>
     </row>
@@ -906,7 +907,7 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>000656</t>
+          <t>000124</t>
         </is>
       </c>
     </row>
@@ -931,7 +932,7 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>000448</t>
+          <t>000151</t>
         </is>
       </c>
     </row>
@@ -956,7 +957,7 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>000787</t>
+          <t>000150</t>
         </is>
       </c>
     </row>
@@ -981,7 +982,7 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>001026</t>
+          <t>000018</t>
         </is>
       </c>
     </row>
@@ -1006,7 +1007,7 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>000044</t>
+          <t>000146</t>
         </is>
       </c>
     </row>
@@ -1031,7 +1032,7 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>000598</t>
+          <t>000167</t>
         </is>
       </c>
     </row>
@@ -1056,7 +1057,7 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>000749</t>
+          <t>000052</t>
         </is>
       </c>
     </row>
